--- a/data/afiliacion_sindical_1932_2019.xlsx
+++ b/data/afiliacion_sindical_1932_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebao\Documents\GitHub\tasa_afiliacion_sindical\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA4F8C0-C612-43D5-A0AC-A546E0015633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB361F8-CED0-42B1-B84A-4C598669BE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leeme" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Año</t>
   </si>
@@ -348,6 +348,9 @@
   <si>
     <t>Osorio, Sebastián y Polanco, Diego (2021): "Tasa de afiliación sindical y tamaño promedio de sindicatos, 1932-2010. Fuentes y propuesta de empalme". En Repositorio de Estadísticas Sindicales, 1900-2020. CIPSTRA, GETSUR y VVAA. Disponible en: https://repositoriosindical.netlify.app/</t>
   </si>
+  <si>
+    <t>Fuerza de trabajo ocupada</t>
+  </si>
 </sst>
 </file>
 
@@ -358,11 +361,18 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -460,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +585,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -609,71 +625,71 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -683,148 +699,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1049,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A155DD7-9735-4B41-9A8B-DD760C0BA330}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1159,15 +1181,15 @@
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.19921875" style="32"/>
     <col min="2" max="6" width="10.796875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" style="78"/>
+    <col min="7" max="7" width="11.19921875" style="77"/>
     <col min="8" max="8" width="11.19921875" style="32" customWidth="1"/>
     <col min="9" max="9" width="11.19921875" customWidth="1"/>
   </cols>
@@ -1191,7 +1213,7 @@
       <c r="F1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="75" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="33" t="s">
@@ -1216,9 +1238,9 @@
       <c r="F2" s="47">
         <v>3.97</v>
       </c>
-      <c r="G2" s="77"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="34"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="82" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1237,7 +1259,7 @@
       <c r="F3" s="47">
         <v>8.73</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:9" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1259,11 +1281,11 @@
       <c r="F4" s="47">
         <v>24.3</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="78">
         <f>C4/B4</f>
         <v>130.16864608076008</v>
       </c>
-      <c r="H4" s="80">
+      <c r="H4" s="79">
         <f>C4/E4</f>
         <v>4.7039484978540776E-2</v>
       </c>
@@ -1287,11 +1309,11 @@
       <c r="F5" s="47">
         <v>11.41</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="78">
         <f t="shared" ref="G5:G68" si="0">C5/B5</f>
         <v>121.24394184168013</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H5" s="79">
         <f t="shared" ref="H5:H68" si="1">C5/E5</f>
         <v>5.3837876614060261E-2</v>
       </c>
@@ -1315,11 +1337,11 @@
       <c r="F6" s="47">
         <v>6.41</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="78">
         <f t="shared" si="0"/>
         <v>119.24264705882354</v>
       </c>
-      <c r="H6" s="80">
+      <c r="H6" s="79">
         <f t="shared" si="1"/>
         <v>5.3841301460823374E-2</v>
       </c>
@@ -1343,11 +1365,11 @@
       <c r="F7" s="47">
         <v>5.57</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="78">
         <f t="shared" si="0"/>
         <v>124.45739910313901</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="79">
         <f t="shared" si="1"/>
         <v>5.3613650998068252E-2</v>
       </c>
@@ -1371,11 +1393,11 @@
       <c r="F8" s="47">
         <v>5.7</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="78">
         <f t="shared" si="0"/>
         <v>129.40149253731343</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="79">
         <f t="shared" si="1"/>
         <v>5.4665195460277427E-2</v>
       </c>
@@ -1399,11 +1421,11 @@
       <c r="F9" s="47">
         <v>4.25</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="78">
         <f t="shared" si="0"/>
         <v>143.32266009852216</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="79">
         <f t="shared" si="1"/>
         <v>7.0660595021250758E-2</v>
       </c>
@@ -1427,11 +1449,11 @@
       <c r="F10" s="47">
         <v>4.72</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="78">
         <f t="shared" si="0"/>
         <v>135.16309012875536</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="79">
         <f t="shared" si="1"/>
         <v>7.516229116945107E-2</v>
       </c>
@@ -1455,11 +1477,11 @@
       <c r="F11" s="47">
         <v>5.04</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="78">
         <f t="shared" si="0"/>
         <v>102.80853586247777</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="79">
         <f t="shared" si="1"/>
         <v>0.10148507899356349</v>
       </c>
@@ -1483,11 +1505,11 @@
       <c r="F12" s="47">
         <v>5.22</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="78">
         <f t="shared" si="0"/>
         <v>85.962394067796609</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="79">
         <f t="shared" si="1"/>
         <v>9.2953608247422687E-2</v>
       </c>
@@ -1511,11 +1533,11 @@
       <c r="F13" s="47">
         <v>6.02</v>
       </c>
-      <c r="G13" s="79">
+      <c r="G13" s="78">
         <f t="shared" si="0"/>
         <v>105.60394537177542</v>
       </c>
-      <c r="H13" s="80">
+      <c r="H13" s="79">
         <f t="shared" si="1"/>
         <v>0.11842257515598412</v>
       </c>
@@ -1539,11 +1561,11 @@
       <c r="F14" s="47">
         <v>6.15</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G14" s="78">
         <f t="shared" si="0"/>
         <v>121.8135593220339</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="79">
         <f t="shared" si="1"/>
         <v>0.10816555183946489</v>
       </c>
@@ -1567,11 +1589,11 @@
       <c r="F15" s="47">
         <v>6.38</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G15" s="78">
         <f t="shared" si="0"/>
         <v>132.17985166872683</v>
       </c>
-      <c r="H15" s="80">
+      <c r="H15" s="79">
         <f t="shared" si="1"/>
         <v>0.11718739726027397</v>
       </c>
@@ -1595,11 +1617,11 @@
       <c r="F16" s="47">
         <v>6.85</v>
       </c>
-      <c r="G16" s="79">
+      <c r="G16" s="78">
         <f t="shared" si="0"/>
         <v>149.04418886198548</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="79">
         <f t="shared" si="1"/>
         <v>0.13294870410367171</v>
       </c>
@@ -1623,11 +1645,11 @@
       <c r="F17" s="47">
         <v>5.78</v>
       </c>
-      <c r="G17" s="79">
+      <c r="G17" s="78">
         <f t="shared" si="0"/>
         <v>147.19418089816571</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="79">
         <f t="shared" si="1"/>
         <v>0.12183979057591623</v>
       </c>
@@ -1651,11 +1673,11 @@
       <c r="F18" s="47">
         <v>4.8899999999999997</v>
       </c>
-      <c r="G18" s="79">
+      <c r="G18" s="78">
         <f t="shared" si="0"/>
         <v>147.58147713950763</v>
       </c>
-      <c r="H18" s="80">
+      <c r="H18" s="79">
         <f t="shared" si="1"/>
         <v>0.12806408952187182</v>
       </c>
@@ -1679,11 +1701,11 @@
       <c r="F19" s="47">
         <v>8.61</v>
       </c>
-      <c r="G19" s="79">
+      <c r="G19" s="78">
         <f t="shared" si="0"/>
         <v>143.68377935554341</v>
       </c>
-      <c r="H19" s="80">
+      <c r="H19" s="79">
         <f t="shared" si="1"/>
         <v>0.13659657320872273</v>
       </c>
@@ -1707,11 +1729,11 @@
       <c r="F20" s="47">
         <v>5.58</v>
       </c>
-      <c r="G20" s="79">
+      <c r="G20" s="78">
         <f t="shared" si="0"/>
         <v>141.99030694668821</v>
       </c>
-      <c r="H20" s="80">
+      <c r="H20" s="79">
         <f t="shared" si="1"/>
         <v>0.12995367175948744</v>
       </c>
@@ -1735,11 +1757,11 @@
       <c r="F21" s="47">
         <v>6.98</v>
       </c>
-      <c r="G21" s="79">
+      <c r="G21" s="78">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="79">
         <f t="shared" si="1"/>
         <v>0.12651864573110894</v>
       </c>
@@ -1763,11 +1785,11 @@
       <c r="F22" s="47">
         <v>6.73</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="78">
         <f t="shared" si="0"/>
         <v>136.41478762454116</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="79">
         <f t="shared" si="1"/>
         <v>0.12464925730713944</v>
       </c>
@@ -1791,11 +1813,11 @@
       <c r="F23" s="47">
         <v>6.65</v>
       </c>
-      <c r="G23" s="79">
+      <c r="G23" s="78">
         <f t="shared" si="0"/>
         <v>137.03678756476683</v>
       </c>
-      <c r="H23" s="80">
+      <c r="H23" s="79">
         <f t="shared" si="1"/>
         <v>0.12364703132304815</v>
       </c>
@@ -1819,11 +1841,11 @@
       <c r="F24" s="47">
         <v>6.1</v>
       </c>
-      <c r="G24" s="79">
+      <c r="G24" s="78">
         <f t="shared" si="0"/>
         <v>142.42263395092638</v>
       </c>
-      <c r="H24" s="80">
+      <c r="H24" s="79">
         <f t="shared" si="1"/>
         <v>0.12916348773841962</v>
       </c>
@@ -1847,11 +1869,11 @@
       <c r="F25" s="47">
         <v>5.35</v>
       </c>
-      <c r="G25" s="79">
+      <c r="G25" s="78">
         <f t="shared" si="0"/>
         <v>144.30285437832609</v>
       </c>
-      <c r="H25" s="80">
+      <c r="H25" s="79">
         <f t="shared" si="1"/>
         <v>0.13375515695067264</v>
       </c>
@@ -1875,11 +1897,11 @@
       <c r="F26" s="47">
         <v>6.98</v>
       </c>
-      <c r="G26" s="79">
+      <c r="G26" s="78">
         <f t="shared" si="0"/>
         <v>144.76015473887816</v>
       </c>
-      <c r="H26" s="80">
+      <c r="H26" s="79">
         <f t="shared" si="1"/>
         <v>0.13601272149023172</v>
       </c>
@@ -1903,11 +1925,11 @@
       <c r="F27" s="47">
         <v>7.02</v>
       </c>
-      <c r="G27" s="79">
+      <c r="G27" s="78">
         <f t="shared" si="0"/>
         <v>140.18925126320624</v>
       </c>
-      <c r="H27" s="80">
+      <c r="H27" s="79">
         <f t="shared" si="1"/>
         <v>0.13815844273426889</v>
       </c>
@@ -1931,11 +1953,11 @@
       <c r="F28" s="47">
         <v>7.63</v>
       </c>
-      <c r="G28" s="79">
+      <c r="G28" s="78">
         <f t="shared" si="0"/>
         <v>133.22921914357681</v>
       </c>
-      <c r="H28" s="80">
+      <c r="H28" s="79">
         <f t="shared" si="1"/>
         <v>0.14327404063205418</v>
       </c>
@@ -1959,11 +1981,11 @@
       <c r="F29" s="47">
         <v>6.14</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G29" s="78">
         <f t="shared" si="0"/>
         <v>141.46157472890147</v>
       </c>
-      <c r="H29" s="80">
+      <c r="H29" s="79">
         <f t="shared" si="1"/>
         <v>0.1321180096873624</v>
       </c>
@@ -1987,11 +2009,11 @@
       <c r="F30" s="47">
         <v>5.85</v>
       </c>
-      <c r="G30" s="79">
+      <c r="G30" s="78">
         <f t="shared" si="0"/>
         <v>145.90601900739176</v>
       </c>
-      <c r="H30" s="80">
+      <c r="H30" s="79">
         <f t="shared" si="1"/>
         <v>0.12030735742272529</v>
       </c>
@@ -2015,11 +2037,11 @@
       <c r="F31" s="47">
         <v>8.49</v>
       </c>
-      <c r="G31" s="79">
+      <c r="G31" s="78">
         <f t="shared" si="0"/>
         <v>149.71461187214612</v>
       </c>
-      <c r="H31" s="80">
+      <c r="H31" s="79">
         <f t="shared" si="1"/>
         <v>0.11657777777777778</v>
       </c>
@@ -2043,11 +2065,11 @@
       <c r="F32" s="47">
         <v>6.61</v>
       </c>
-      <c r="G32" s="79">
+      <c r="G32" s="78">
         <f t="shared" si="0"/>
         <v>154.21807909604519</v>
       </c>
-      <c r="H32" s="80">
+      <c r="H32" s="79">
         <f t="shared" si="1"/>
         <v>0.11801383484651967</v>
       </c>
@@ -2071,11 +2093,11 @@
       <c r="F33" s="47">
         <v>7.48</v>
       </c>
-      <c r="G33" s="79">
+      <c r="G33" s="78">
         <f t="shared" si="0"/>
         <v>149.24659863945578</v>
       </c>
-      <c r="H33" s="80">
+      <c r="H33" s="79">
         <f t="shared" si="1"/>
         <v>0.11265340179717587</v>
       </c>
@@ -2099,11 +2121,11 @@
       <c r="F34" s="47">
         <v>7.37</v>
       </c>
-      <c r="G34" s="79">
+      <c r="G34" s="78">
         <f t="shared" si="0"/>
         <v>145.27903043968433</v>
       </c>
-      <c r="H34" s="80">
+      <c r="H34" s="79">
         <f t="shared" si="1"/>
         <v>0.10806079664570231</v>
       </c>
@@ -2127,11 +2149,11 @@
       <c r="F35" s="47">
         <v>6.97</v>
       </c>
-      <c r="G35" s="79">
+      <c r="G35" s="78">
         <f t="shared" si="0"/>
         <v>144.72732181425485</v>
       </c>
-      <c r="H35" s="80">
+      <c r="H35" s="79">
         <f t="shared" si="1"/>
         <v>0.10985040983606557</v>
       </c>
@@ -2155,11 +2177,11 @@
       <c r="F36" s="47">
         <v>6.47</v>
       </c>
-      <c r="G36" s="79">
+      <c r="G36" s="78">
         <f t="shared" si="0"/>
         <v>149.74771873322598</v>
       </c>
-      <c r="H36" s="80">
+      <c r="H36" s="79">
         <f t="shared" si="1"/>
         <v>0.11172607128554266</v>
       </c>
@@ -2183,11 +2205,11 @@
       <c r="F37" s="47">
         <v>5.87</v>
       </c>
-      <c r="G37" s="79">
+      <c r="G37" s="78">
         <f t="shared" si="0"/>
         <v>146.90383681398737</v>
       </c>
-      <c r="H37" s="80">
+      <c r="H37" s="79">
         <f t="shared" si="1"/>
         <v>0.11829292139225656</v>
       </c>
@@ -2211,11 +2233,11 @@
       <c r="F38" s="47">
         <v>5.56</v>
       </c>
-      <c r="G38" s="79">
+      <c r="G38" s="78">
         <f t="shared" si="0"/>
         <v>128.2120055517002</v>
       </c>
-      <c r="H38" s="80">
+      <c r="H38" s="79">
         <f t="shared" si="1"/>
         <v>0.14189976958525347</v>
       </c>
@@ -2239,11 +2261,11 @@
       <c r="F39" s="47">
         <v>4.16</v>
       </c>
-      <c r="G39" s="79">
+      <c r="G39" s="78">
         <f t="shared" si="0"/>
         <v>129.20315236427319</v>
       </c>
-      <c r="H39" s="80">
+      <c r="H39" s="79">
         <f t="shared" si="1"/>
         <v>0.16510630361805295</v>
       </c>
@@ -2267,11 +2289,11 @@
       <c r="F40" s="47">
         <v>4.3600000000000003</v>
       </c>
-      <c r="G40" s="79">
+      <c r="G40" s="78">
         <f t="shared" si="0"/>
         <v>128.68269478014915</v>
       </c>
-      <c r="H40" s="80">
+      <c r="H40" s="79">
         <f t="shared" si="1"/>
         <v>0.18439462048636698</v>
       </c>
@@ -2295,11 +2317,11 @@
       <c r="F41" s="47">
         <v>4.96</v>
       </c>
-      <c r="G41" s="79">
+      <c r="G41" s="78">
         <f t="shared" si="0"/>
         <v>128.18519394512771</v>
       </c>
-      <c r="H41" s="80">
+      <c r="H41" s="79">
         <f t="shared" si="1"/>
         <v>0.19823226042428677</v>
       </c>
@@ -2323,11 +2345,11 @@
       <c r="F42" s="47">
         <v>5.9</v>
       </c>
-      <c r="G42" s="79">
+      <c r="G42" s="78">
         <f t="shared" si="0"/>
         <v>137.01462562759224</v>
       </c>
-      <c r="H42" s="80">
+      <c r="H42" s="79">
         <f t="shared" si="1"/>
         <v>0.22882391542107183</v>
       </c>
@@ -2351,11 +2373,11 @@
       <c r="F43" s="47">
         <v>5.2</v>
       </c>
-      <c r="G43" s="79">
+      <c r="G43" s="78">
         <f t="shared" si="0"/>
         <v>150.13315425940138</v>
       </c>
-      <c r="H43" s="80">
+      <c r="H43" s="79">
         <f t="shared" si="1"/>
         <v>0.27659738423471192</v>
       </c>
@@ -2379,11 +2401,11 @@
       <c r="F44" s="47">
         <v>4</v>
       </c>
-      <c r="G44" s="79">
+      <c r="G44" s="78">
         <f t="shared" si="0"/>
         <v>139.81758744687806</v>
       </c>
-      <c r="H44" s="80">
+      <c r="H44" s="79">
         <f t="shared" si="1"/>
         <v>0.29174761255115961</v>
       </c>
@@ -2407,11 +2429,11 @@
       <c r="F45" s="47">
         <v>4.8</v>
       </c>
-      <c r="G45" s="79">
+      <c r="G45" s="78">
         <f t="shared" si="0"/>
         <v>140.36446503287507</v>
       </c>
-      <c r="H45" s="80">
+      <c r="H45" s="79">
         <f t="shared" si="1"/>
         <v>0.31563138440860217</v>
       </c>
@@ -2435,11 +2457,11 @@
       <c r="F46" s="47">
         <v>9.1</v>
       </c>
-      <c r="G46" s="79">
+      <c r="G46" s="78">
         <f t="shared" si="0"/>
         <v>133.97835620314046</v>
       </c>
-      <c r="H46" s="80">
+      <c r="H46" s="79">
         <f t="shared" si="1"/>
         <v>0.32579738562091504</v>
       </c>
@@ -2463,11 +2485,11 @@
       <c r="F47" s="47">
         <v>18</v>
       </c>
-      <c r="G47" s="79">
+      <c r="G47" s="78">
         <f t="shared" si="0"/>
         <v>131.01378638072691</v>
       </c>
-      <c r="H47" s="80">
+      <c r="H47" s="79">
         <f t="shared" si="1"/>
         <v>0.35065598210957882</v>
       </c>
@@ -2491,11 +2513,11 @@
       <c r="F48" s="47">
         <v>21.9</v>
       </c>
-      <c r="G48" s="79">
+      <c r="G48" s="78">
         <f t="shared" si="0"/>
         <v>131.0710298632431</v>
       </c>
-      <c r="H48" s="80">
+      <c r="H48" s="79">
         <f t="shared" si="1"/>
         <v>0.3600057493292449</v>
       </c>
@@ -2519,11 +2541,11 @@
       <c r="F49" s="47">
         <v>18.100000000000001</v>
       </c>
-      <c r="G49" s="79">
+      <c r="G49" s="78">
         <f t="shared" si="0"/>
         <v>129.51377702416278</v>
       </c>
-      <c r="H49" s="80">
+      <c r="H49" s="79">
         <f t="shared" si="1"/>
         <v>0.32816648764769063</v>
       </c>
@@ -2547,11 +2569,11 @@
       <c r="F50" s="47">
         <v>18.899999999999999</v>
       </c>
-      <c r="G50" s="79">
+      <c r="G50" s="78">
         <f t="shared" si="0"/>
         <v>144.57407679858761</v>
       </c>
-      <c r="H50" s="80">
+      <c r="H50" s="79">
         <f t="shared" si="1"/>
         <v>0.34809422600070844</v>
       </c>
@@ -2575,11 +2597,11 @@
       <c r="F51" s="47">
         <v>17.8</v>
       </c>
-      <c r="G51" s="79">
+      <c r="G51" s="78">
         <f t="shared" si="0"/>
         <v>79.340019102196749</v>
       </c>
-      <c r="H51" s="80">
+      <c r="H51" s="79">
         <f t="shared" si="1"/>
         <v>0.19906983909619994</v>
       </c>
@@ -2603,11 +2625,11 @@
       <c r="F52" s="47">
         <v>17.399999999999999</v>
       </c>
-      <c r="G52" s="79">
+      <c r="G52" s="78">
         <f t="shared" si="0"/>
         <v>84.165760278442463</v>
       </c>
-      <c r="H52" s="80">
+      <c r="H52" s="79">
         <f t="shared" si="1"/>
         <v>0.12918530884808013</v>
       </c>
@@ -2631,11 +2653,11 @@
       <c r="F53" s="47">
         <v>15.5</v>
       </c>
-      <c r="G53" s="79">
+      <c r="G53" s="78">
         <f t="shared" si="0"/>
         <v>99.560221272315815</v>
       </c>
-      <c r="H53" s="80">
+      <c r="H53" s="79">
         <f t="shared" si="1"/>
         <v>0.12625988520408163</v>
       </c>
@@ -2659,11 +2681,11 @@
       <c r="F54" s="47">
         <v>25.2</v>
       </c>
-      <c r="G54" s="79">
+      <c r="G54" s="78">
         <f t="shared" si="0"/>
         <v>85.837450592885375</v>
       </c>
-      <c r="H54" s="80">
+      <c r="H54" s="79">
         <f t="shared" si="1"/>
         <v>0.12234859154929577</v>
       </c>
@@ -2687,11 +2709,11 @@
       <c r="F55" s="47">
         <v>27</v>
       </c>
-      <c r="G55" s="79">
+      <c r="G55" s="78">
         <f t="shared" si="0"/>
         <v>72.915928198136783</v>
       </c>
-      <c r="H55" s="80">
+      <c r="H55" s="79">
         <f t="shared" si="1"/>
         <v>0.11267661516853933</v>
       </c>
@@ -2715,11 +2737,11 @@
       <c r="F56" s="47">
         <v>20.2</v>
       </c>
-      <c r="G56" s="79">
+      <c r="G56" s="78">
         <f t="shared" si="0"/>
         <v>72.831777683495972</v>
       </c>
-      <c r="H56" s="80">
+      <c r="H56" s="79">
         <f t="shared" si="1"/>
         <v>0.10732385120350109</v>
       </c>
@@ -2743,11 +2765,11 @@
       <c r="F57" s="47">
         <v>15.3</v>
       </c>
-      <c r="G57" s="79">
+      <c r="G57" s="78">
         <f t="shared" si="0"/>
         <v>72.279335202242692</v>
       </c>
-      <c r="H57" s="80">
+      <c r="H57" s="79">
         <f t="shared" si="1"/>
         <v>0.10345743766122098</v>
       </c>
@@ -2771,11 +2793,11 @@
       <c r="F58" s="47">
         <v>14.02</v>
       </c>
-      <c r="G58" s="79">
+      <c r="G58" s="78">
         <f t="shared" si="0"/>
         <v>71.783899091077728</v>
       </c>
-      <c r="H58" s="80">
+      <c r="H58" s="79">
         <f t="shared" si="1"/>
         <v>0.10611105017822868</v>
       </c>
@@ -2799,11 +2821,11 @@
       <c r="F59" s="47">
         <v>11.83</v>
       </c>
-      <c r="G59" s="79">
+      <c r="G59" s="78">
         <f t="shared" si="0"/>
         <v>71.783443821179674</v>
       </c>
-      <c r="H59" s="80">
+      <c r="H59" s="79">
         <f t="shared" si="1"/>
         <v>0.10968883116883117</v>
       </c>
@@ -2827,11 +2849,11 @@
       <c r="F60" s="47">
         <v>9.9499999999999993</v>
       </c>
-      <c r="G60" s="79">
+      <c r="G60" s="78">
         <f t="shared" si="0"/>
         <v>69.220291653738755</v>
       </c>
-      <c r="H60" s="80">
+      <c r="H60" s="79">
         <f t="shared" si="1"/>
         <v>0.11022579051383399</v>
       </c>
@@ -2855,11 +2877,11 @@
       <c r="F61" s="47">
         <v>7.9</v>
       </c>
-      <c r="G61" s="79">
+      <c r="G61" s="78">
         <f t="shared" si="0"/>
         <v>71.314414161281263</v>
       </c>
-      <c r="H61" s="80">
+      <c r="H61" s="79">
         <f t="shared" si="1"/>
         <v>0.11913072048814832</v>
       </c>
@@ -2884,11 +2906,11 @@
       <c r="F62" s="47">
         <v>7.8</v>
       </c>
-      <c r="G62" s="79">
+      <c r="G62" s="78">
         <f t="shared" si="0"/>
         <v>81.863338954468801</v>
       </c>
-      <c r="H62" s="80">
+      <c r="H62" s="79">
         <f t="shared" si="1"/>
         <v>0.13825746183640922</v>
       </c>
@@ -2912,11 +2934,11 @@
       <c r="F63" s="47">
         <v>8.16</v>
       </c>
-      <c r="G63" s="79">
+      <c r="G63" s="78">
         <f t="shared" si="0"/>
         <v>91.002335539120281</v>
       </c>
-      <c r="H63" s="80">
+      <c r="H63" s="79">
         <f t="shared" si="1"/>
         <v>0.15561459951187043</v>
       </c>
@@ -2940,11 +2962,11 @@
       <c r="F64" s="47">
         <v>6.64</v>
       </c>
-      <c r="G64" s="79">
+      <c r="G64" s="78">
         <f t="shared" si="0"/>
         <v>86.995674636549325</v>
       </c>
-      <c r="H64" s="80">
+      <c r="H64" s="79">
         <f t="shared" si="1"/>
         <v>0.15327370872142251</v>
       </c>
@@ -2968,11 +2990,11 @@
       <c r="F65" s="47">
         <v>6.55</v>
       </c>
-      <c r="G65" s="79">
+      <c r="G65" s="78">
         <f t="shared" si="0"/>
         <v>85.824053172811631</v>
       </c>
-      <c r="H65" s="80">
+      <c r="H65" s="79">
         <f t="shared" si="1"/>
         <v>0.14139690082644629</v>
       </c>
@@ -2996,11 +3018,11 @@
       <c r="F66" s="47">
         <v>7.85</v>
       </c>
-      <c r="G66" s="79">
+      <c r="G66" s="78">
         <f t="shared" si="0"/>
         <v>83.888734000760365</v>
       </c>
-      <c r="H66" s="80">
+      <c r="H66" s="79">
         <f t="shared" si="1"/>
         <v>0.13553767403767403</v>
       </c>
@@ -3024,11 +3046,11 @@
       <c r="F67" s="47">
         <v>7.33</v>
       </c>
-      <c r="G67" s="79">
+      <c r="G67" s="78">
         <f t="shared" si="0"/>
         <v>84.952698201199198</v>
       </c>
-      <c r="H67" s="80">
+      <c r="H67" s="79">
         <f t="shared" si="1"/>
         <v>0.12687960199004975</v>
       </c>
@@ -3054,11 +3076,11 @@
       <c r="F68" s="47">
         <v>6.35</v>
       </c>
-      <c r="G68" s="79">
+      <c r="G68" s="78">
         <f t="shared" si="0"/>
         <v>83.963012507524581</v>
       </c>
-      <c r="H68" s="80">
+      <c r="H68" s="79">
         <f t="shared" si="1"/>
         <v>0.12121774816531479</v>
       </c>
@@ -3082,11 +3104,11 @@
       <c r="F69" s="47">
         <v>6.1</v>
       </c>
-      <c r="G69" s="79">
+      <c r="G69" s="78">
         <f t="shared" ref="G69:G82" si="2">C69/B69</f>
         <v>82.965484824066607</v>
       </c>
-      <c r="H69" s="80">
+      <c r="H69" s="79">
         <f t="shared" ref="H69:H82" si="3">C69/E69</f>
         <v>0.11669078201737816</v>
       </c>
@@ -3110,11 +3132,11 @@
       <c r="F70" s="47">
         <v>6.41</v>
       </c>
-      <c r="G70" s="79">
+      <c r="G70" s="78">
         <f t="shared" si="2"/>
         <v>82.20661379217637</v>
       </c>
-      <c r="H70" s="80">
+      <c r="H70" s="79">
         <f t="shared" si="3"/>
         <v>0.1136893474623536</v>
       </c>
@@ -3138,11 +3160,11 @@
       <c r="F71" s="47">
         <v>10.1</v>
       </c>
-      <c r="G71" s="79">
+      <c r="G71" s="78">
         <f t="shared" si="2"/>
         <v>82.187331727362903</v>
       </c>
-      <c r="H71" s="80">
+      <c r="H71" s="79">
         <f t="shared" si="3"/>
         <v>0.1101188532371369</v>
       </c>
@@ -3166,11 +3188,11 @@
       <c r="F72" s="47">
         <v>9.73</v>
       </c>
-      <c r="G72" s="79">
+      <c r="G72" s="78">
         <f t="shared" si="2"/>
         <v>77.751011881446658</v>
       </c>
-      <c r="H72" s="80">
+      <c r="H72" s="79">
         <f t="shared" si="3"/>
         <v>0.11050194841343478</v>
       </c>
@@ -3194,11 +3216,11 @@
       <c r="F73" s="47">
         <v>9.86</v>
       </c>
-      <c r="G73" s="79">
+      <c r="G73" s="78">
         <f t="shared" si="2"/>
         <v>80.91902834008097</v>
       </c>
-      <c r="H73" s="80">
+      <c r="H73" s="79">
         <f t="shared" si="3"/>
         <v>0.10953781512605042</v>
       </c>
@@ -3222,11 +3244,11 @@
       <c r="F74" s="47">
         <v>9.7899999999999991</v>
       </c>
-      <c r="G74" s="79">
+      <c r="G74" s="78">
         <f t="shared" si="2"/>
         <v>75.951650509264937</v>
       </c>
-      <c r="H74" s="80">
+      <c r="H74" s="79">
         <f t="shared" si="3"/>
         <v>0.11105867575811951</v>
       </c>
@@ -3250,11 +3272,11 @@
       <c r="F75" s="47">
         <v>9.5299999999999994</v>
       </c>
-      <c r="G75" s="79">
+      <c r="G75" s="78">
         <f t="shared" si="2"/>
         <v>74.663432586149213</v>
       </c>
-      <c r="H75" s="80">
+      <c r="H75" s="79">
         <f t="shared" si="3"/>
         <v>0.11605252210088403</v>
       </c>
@@ -3278,11 +3300,11 @@
       <c r="F76" s="47">
         <v>10.039999999999999</v>
       </c>
-      <c r="G76" s="79">
+      <c r="G76" s="78">
         <f t="shared" si="2"/>
         <v>72.254779099405269</v>
       </c>
-      <c r="H76" s="80">
+      <c r="H76" s="79">
         <f t="shared" si="3"/>
         <v>0.11488534278959811</v>
       </c>
@@ -3306,11 +3328,11 @@
       <c r="F77" s="47">
         <v>9.23</v>
       </c>
-      <c r="G77" s="79">
+      <c r="G77" s="78">
         <f t="shared" si="2"/>
         <v>73.936160909488407</v>
       </c>
-      <c r="H77" s="80">
+      <c r="H77" s="79">
         <f t="shared" si="3"/>
         <v>0.10960427807486631</v>
       </c>
@@ -3334,11 +3356,11 @@
       <c r="F78" s="47">
         <v>7.81</v>
       </c>
-      <c r="G78" s="79">
+      <c r="G78" s="78">
         <f t="shared" si="2"/>
         <v>74.671689303904927</v>
       </c>
-      <c r="H78" s="80">
+      <c r="H78" s="79">
         <f t="shared" si="3"/>
         <v>0.11216225693337584</v>
       </c>
@@ -3362,11 +3384,11 @@
       <c r="F79" s="47">
         <v>7.12</v>
       </c>
-      <c r="G79" s="79">
+      <c r="G79" s="78">
         <f t="shared" si="2"/>
         <v>77.373838761345439</v>
       </c>
-      <c r="H79" s="80">
+      <c r="H79" s="79">
         <f t="shared" si="3"/>
         <v>0.11235943557140642</v>
       </c>
@@ -3390,11 +3412,11 @@
       <c r="F80" s="47">
         <v>7.81</v>
       </c>
-      <c r="G80" s="79">
+      <c r="G80" s="78">
         <f t="shared" si="2"/>
         <v>85.787044967880092</v>
       </c>
-      <c r="H80" s="80">
+      <c r="H80" s="79">
         <f t="shared" si="3"/>
         <v>0.12068850730531706</v>
       </c>
@@ -3418,11 +3440,11 @@
       <c r="F81" s="47">
         <v>9.69</v>
       </c>
-      <c r="G81" s="79">
+      <c r="G81" s="78">
         <f t="shared" si="2"/>
         <v>85.623465630114566</v>
       </c>
-      <c r="H81" s="80">
+      <c r="H81" s="79">
         <f t="shared" si="3"/>
         <v>0.1269226686884003</v>
       </c>
@@ -3446,11 +3468,11 @@
       <c r="F82" s="47">
         <v>8.1</v>
       </c>
-      <c r="G82" s="79">
+      <c r="G82" s="78">
         <f t="shared" si="2"/>
         <v>86.97913078715429</v>
       </c>
-      <c r="H82" s="80">
+      <c r="H82" s="79">
         <f t="shared" si="3"/>
         <v>0.12067055516514406</v>
       </c>
@@ -3462,7 +3484,7 @@
       <c r="D83" s="37"/>
       <c r="E83" s="37"/>
       <c r="F83" s="37"/>
-      <c r="G83" s="77"/>
+      <c r="G83" s="76"/>
       <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -3472,7 +3494,7 @@
       <c r="D84" s="37"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
-      <c r="G84" s="77"/>
+      <c r="G84" s="76"/>
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -3482,7 +3504,7 @@
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
-      <c r="G85" s="77"/>
+      <c r="G85" s="76"/>
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -3498,7 +3520,7 @@
       <c r="D86" s="37"/>
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
-      <c r="G86" s="77"/>
+      <c r="G86" s="76"/>
       <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -3512,7 +3534,7 @@
       <c r="D87" s="37"/>
       <c r="E87" s="37"/>
       <c r="F87" s="37"/>
-      <c r="G87" s="77"/>
+      <c r="G87" s="76"/>
       <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -3526,7 +3548,7 @@
       <c r="D88" s="37"/>
       <c r="E88" s="37"/>
       <c r="F88" s="37"/>
-      <c r="G88" s="77"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -3540,7 +3562,7 @@
       <c r="D89" s="37"/>
       <c r="E89" s="37"/>
       <c r="F89" s="37"/>
-      <c r="G89" s="77"/>
+      <c r="G89" s="76"/>
       <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -3554,7 +3576,7 @@
       <c r="D90" s="37"/>
       <c r="E90" s="37"/>
       <c r="F90" s="37"/>
-      <c r="G90" s="77"/>
+      <c r="G90" s="76"/>
       <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -3576,8 +3598,8 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="81"/>
-      <c r="B93" s="82" t="s">
+      <c r="A93" s="80"/>
+      <c r="B93" s="81" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3591,9 +3613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3630,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -3672,12 +3694,12 @@
       <c r="A2" s="4">
         <v>1930</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="45">
         <v>1474815</v>
       </c>
@@ -3697,12 +3719,12 @@
       <c r="A3" s="4">
         <v>1931</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="45">
         <v>1506670</v>
       </c>
@@ -4640,7 +4662,7 @@
       <c r="E32" s="14">
         <v>272966</v>
       </c>
-      <c r="F32" s="75"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="11">
         <v>2388667</v>
       </c>
@@ -4677,7 +4699,7 @@
       <c r="E33" s="14">
         <v>263271</v>
       </c>
-      <c r="F33" s="75"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="11">
         <v>2415348</v>
       </c>
@@ -4714,7 +4736,7 @@
       <c r="E34" s="14">
         <v>257725</v>
       </c>
-      <c r="F34" s="75"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="11">
         <v>2442649</v>
       </c>
@@ -4751,7 +4773,7 @@
       <c r="E35" s="14">
         <v>268035</v>
       </c>
-      <c r="F35" s="75"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="11">
         <v>2470657</v>
       </c>
@@ -4788,7 +4810,7 @@
       <c r="E36" s="14">
         <v>278980</v>
       </c>
-      <c r="F36" s="75"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="11">
         <v>2499469</v>
       </c>
@@ -4823,7 +4845,7 @@
       <c r="E37" s="14">
         <v>302475</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="11">
         <v>2529190</v>
       </c>
@@ -4858,7 +4880,7 @@
       <c r="E38" s="14">
         <v>369507</v>
       </c>
-      <c r="F38" s="75"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="11">
         <v>2559931</v>
       </c>
@@ -4893,7 +4915,7 @@
       <c r="E39" s="14">
         <v>442650</v>
       </c>
-      <c r="F39" s="75"/>
+      <c r="F39" s="74"/>
       <c r="G39" s="11">
         <v>2591809</v>
       </c>
@@ -4928,7 +4950,7 @@
       <c r="E40" s="14">
         <v>500447</v>
       </c>
-      <c r="F40" s="75"/>
+      <c r="F40" s="74"/>
       <c r="G40" s="11">
         <v>2624951</v>
       </c>
@@ -4963,7 +4985,7 @@
       <c r="E41" s="14">
         <v>541967</v>
       </c>
-      <c r="F41" s="75"/>
+      <c r="F41" s="74"/>
       <c r="G41" s="11">
         <v>2659490</v>
       </c>
@@ -6562,7 +6584,7 @@
         <f t="shared" si="0"/>
         <v>11.67514636920736</v>
       </c>
-      <c r="M82" s="50"/>
+      <c r="M82" s="85"/>
       <c r="O82" s="15"/>
       <c r="P82" s="16"/>
       <c r="R82" s="17"/>
@@ -6778,12 +6800,14 @@
       <c r="F90" s="69">
         <v>1174346</v>
       </c>
-      <c r="G90" s="70"/>
+      <c r="G90" s="69">
+        <v>8414056</v>
+      </c>
       <c r="H90" s="50"/>
       <c r="I90" s="50"/>
       <c r="J90" s="50"/>
       <c r="K90" s="50"/>
-      <c r="L90" s="71">
+      <c r="L90" s="70">
         <v>14</v>
       </c>
       <c r="M90" s="50"/>
@@ -6799,17 +6823,25 @@
       <c r="A91" s="15">
         <v>2019</v>
       </c>
-      <c r="B91" s="7"/>
+      <c r="B91" s="83">
+        <v>11926</v>
+      </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+      <c r="F91" s="83">
+        <v>1193104</v>
+      </c>
+      <c r="G91" s="83">
+        <v>9087133</v>
+      </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
+      <c r="L91" s="84">
+        <v>13.1</v>
+      </c>
       <c r="M91" s="7"/>
       <c r="O91" s="24"/>
       <c r="P91" s="23"/>
@@ -6897,7 +6929,7 @@
     </row>
     <row r="96" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
-      <c r="B96" s="74"/>
+      <c r="B96" s="73"/>
       <c r="C96" s="55" t="s">
         <v>13</v>
       </c>
